--- a/Control.xlsx
+++ b/Control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Ventillation</t>
   </si>
@@ -28,7 +28,49 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2016-06-01 16:07:56</t>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>2016-06-02 15:26:11</t>
+  </si>
+  <si>
+    <t>2016-06-03 10:02:14</t>
+  </si>
+  <si>
+    <t>2016-06-03 10:03:40</t>
+  </si>
+  <si>
+    <t>2016-06-03 10:20:10</t>
+  </si>
+  <si>
+    <t>2016-06-03 10:21:15</t>
+  </si>
+  <si>
+    <t>2016-06-03 21:08:22</t>
+  </si>
+  <si>
+    <t>2016-06-03 21:44:34</t>
+  </si>
+  <si>
+    <t>2016-06-03 21:44:44</t>
+  </si>
+  <si>
+    <t>2016-06-03 21:44:54</t>
+  </si>
+  <si>
+    <t>2016-06-03 22:33:49</t>
+  </si>
+  <si>
+    <t>2016-06-03 22:33:59</t>
+  </si>
+  <si>
+    <t>2016-06-03 22:34:09</t>
+  </si>
+  <si>
+    <t>2016-06-03 22:34:19</t>
+  </si>
+  <si>
+    <t>2016-06-03 22:35:36</t>
   </si>
 </sst>
 </file>
@@ -365,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +428,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="n">
         <v>256.56</v>
       </c>
@@ -395,10 +440,231 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.6</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Control.xlsx
+++ b/Control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Ventillation</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>2016-06-03 22:35:36</t>
+  </si>
+  <si>
+    <t>2016-06-06 12:18:37</t>
+  </si>
+  <si>
+    <t>2016-06-06 14:22:05</t>
+  </si>
+  <si>
+    <t>2016-06-06 14:22:15</t>
+  </si>
+  <si>
+    <t>2016-06-06 14:22:25</t>
+  </si>
+  <si>
+    <t>2016-06-06 14:25:16</t>
+  </si>
+  <si>
+    <t>2016-06-06 14:36:57</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +685,108 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>256.56</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
